--- a/data/income_statement/2digits/size/29_IS_LARGE.xlsx
+++ b/data/income_statement/2digits/size/29_IS_LARGE.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>29-Manufacture of motor vehicles, trailers and semi-trailers</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>29-Manufacture of motor vehicles, trailers and semi-trailers</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,833 +841,943 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>34947550.28088</v>
+        <v>34813105.63225</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>42044610.66321</v>
+        <v>41854074.37142</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>56184668.0622</v>
+        <v>56002830.06256</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>55460648.51432001</v>
+        <v>55325330.59735</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>59857303.23111</v>
+        <v>62912676.4791</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>68308400.62628999</v>
+        <v>73985718.18975</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>65641993.6355</v>
+        <v>94316726.37629001</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>101413422.28725</v>
+        <v>107826944.09889</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>148597366.55317</v>
+        <v>148093115.16722</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>189063674.57444</v>
+        <v>188439384.76949</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>213955718.63395</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>213505498.81916</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>247922200.189</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>16105391.12108</v>
+        <v>15998207.80451</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>22348708.36797</v>
+        <v>22246987.23582</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>31005292.54534</v>
+        <v>30897094.35002</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>29672685.84729001</v>
+        <v>29567237.29872</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>30758481.31987</v>
+        <v>33702954.38065</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>35774531.48196001</v>
+        <v>41118894.76337</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>37234361.78487</v>
+        <v>53232401.44401</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>53501848.36071</v>
+        <v>56708909.24709</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>75027067.95497</v>
+        <v>74685367.61897001</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>79819244.87616999</v>
+        <v>79492071.29281999</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>83719510.77338001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>83533154.17395002</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>113954856.142</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>18591424.5801</v>
+        <v>18565441.24877</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>19477463.50922</v>
+        <v>19390599.55087</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>24670270.44554</v>
+        <v>24601624.31949</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>25357429.50177</v>
+        <v>25331846.43648</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>28474086.98576</v>
+        <v>28544049.23258</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>31854819.65116</v>
+        <v>32125399.58471</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>27812567.93519</v>
+        <v>40009376.35126</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>46611043.30935001</v>
+        <v>49786479.23233</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>71586747.51021001</v>
+        <v>71429201.91982</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>106467201.45262</v>
+        <v>106183713.68712</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>127782785.60219</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>127550990.08307</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>130959614.207</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>250734.5797</v>
+        <v>249456.57897</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>218438.78602</v>
+        <v>216487.58473</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>509105.0713199999</v>
+        <v>504111.39305</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>430533.16526</v>
+        <v>426246.86215</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>624734.92548</v>
+        <v>665672.86587</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>679049.49317</v>
+        <v>741423.8416700001</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>595063.9154399999</v>
+        <v>1074948.58102</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>1300530.61719</v>
+        <v>1331555.61947</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>1983551.08799</v>
+        <v>1978545.62843</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>2777228.245649999</v>
+        <v>2763599.78955</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>2453422.25838</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>2421354.56214</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>3007729.84</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>1452857.19126</v>
+        <v>1446847.00325</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>1910414.57684</v>
+        <v>1906966.21233</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>2409806.63638</v>
+        <v>2404935.09658</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>2787404.31297</v>
+        <v>2785535.48849</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>2278840.89197</v>
+        <v>2557105.01363</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>2709167.73312</v>
+        <v>3121981.58912</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>3219925.51509</v>
+        <v>4421882.23425</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>4523289.42133</v>
+        <v>4635960.745139999</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>5466164.303</v>
+        <v>5455224.1578</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>5976279.71043</v>
+        <v>5971972.46531</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>5960808.616889999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>5954977.057969999</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>6736617.98</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>182342.96854</v>
+        <v>178899.91018</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>315353.70874</v>
+        <v>313156.43455</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>342758.3013</v>
+        <v>341549.86241</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>506518.82651</v>
+        <v>505074.58061</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>250781.69679</v>
+        <v>253320.01966</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>359859.3357999999</v>
+        <v>365632.93473</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>310365.17202</v>
+        <v>403855.11596</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>462460.9584600001</v>
+        <v>450132.1493400001</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>459097.00376</v>
+        <v>451101.40852</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>864840.71111</v>
+        <v>861516.98598</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>578675.69116</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>576422.54474</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>652871.415</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>988307.7106600001</v>
+        <v>986293.47984</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>1221012.34819</v>
+        <v>1219910.05377</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>1599608.58991</v>
+        <v>1595981.80833</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>1733247.62883</v>
+        <v>1732899.16963</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>1598543.58564</v>
+        <v>1670326.96642</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>1946629.87011</v>
+        <v>2039781.03011</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>2301956.42173</v>
+        <v>3063329.36988</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>3015152.79801</v>
+        <v>3127647.59973</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>3742799.73996</v>
+        <v>3740152.68939</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>4002061.88888</v>
+        <v>4001240.51086</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>4129125.69129</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>4128593.9512</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>4737271.028</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>282206.51206</v>
+        <v>281653.61323</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>374048.51991</v>
+        <v>373899.72401</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>467439.74517</v>
+        <v>467403.42584</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>547637.85763</v>
+        <v>547561.7382500001</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>429515.60954</v>
+        <v>633458.02755</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>402678.52721</v>
+        <v>716567.62428</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>607603.92134</v>
+        <v>954697.74841</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>1045675.66486</v>
+        <v>1058180.99607</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>1264267.55928</v>
+        <v>1263970.05989</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>1109377.11044</v>
+        <v>1109214.96847</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>1253007.23444</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>1249960.56203</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>1346475.537</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>33494693.08962</v>
+        <v>33366258.629</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>40134196.08637</v>
+        <v>39947108.15909</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>53774861.42582</v>
+        <v>53597894.96598</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>52673244.20135</v>
+        <v>52539795.10885999</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>57578462.33914</v>
+        <v>60355571.46547</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>65599232.89317</v>
+        <v>70863736.60063</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>62422068.12041</v>
+        <v>89894844.14204001</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>96890132.86591999</v>
+        <v>103190983.35375</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>143131202.25017</v>
+        <v>142637891.00942</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>183087394.86401</v>
+        <v>182467412.30418</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>207994910.01706</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>207550521.76119</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>241185582.209</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>29872738.05016</v>
+        <v>29764776.99097</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>35849021.37456</v>
+        <v>35690784.361</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>47221923.25564</v>
+        <v>47088474.0965</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>46961201.5602</v>
+        <v>46840887.83099</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>50734693.71541</v>
+        <v>53256429.36325999</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>58751408.36875</v>
+        <v>63646162.48878</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>54950381.78898999</v>
+        <v>80455167.36071001</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>86247903.07877001</v>
+        <v>92352474.65111999</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>126596891.93879</v>
+        <v>126216111.82102</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>160551867.19154</v>
+        <v>160065383.13711</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>185371699.17729</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>185033585.50644</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>208453383.802</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>25760691.43773</v>
+        <v>25678436.74054</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>30575123.62022</v>
+        <v>30437707.43241</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>40241402.47949</v>
+        <v>40113684.48469</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>40070718.27255</v>
+        <v>39959432.52507</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>43224701.79383</v>
+        <v>44876258.78818</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>50400874.82418001</v>
+        <v>54513224.88209</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>46391828.54056</v>
+        <v>68378515.31519</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>73892535.20689</v>
+        <v>79300855.9463</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>111000043.70085</v>
+        <v>110643238.38233</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>145988284.47095</v>
+        <v>145579628.27975</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>169526955.16553</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>169211026.82225</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>189717377.669</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>3773751.47673</v>
+        <v>3751179.1695</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>4808702.117849999</v>
+        <v>4804315.54052</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>6339060.264549999</v>
+        <v>6334451.4179</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>6224821.2234</v>
+        <v>6219378.50208</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>6852986.36475</v>
+        <v>7728573.002889999</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>7330864.52515</v>
+        <v>8125966.60781</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>7524360.42929</v>
+        <v>10517391.99059</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>10574320.43031</v>
+        <v>11271798.90492</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>13372108.31671</v>
+        <v>13354473.37239</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>11542830.89684</v>
+        <v>11467078.06116</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>11863510.30355</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>11842786.47657</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>14869590.039</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>21139.20146</v>
+        <v>20105.66276</v>
       </c>
       <c r="D17" s="48" t="n">
         <v>5402.76436</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>8662.132310000001</v>
+        <v>8613.23532</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>25097.78486</v>
+        <v>25084.02877</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>50984.30978</v>
+        <v>49867.83057</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>135668.17328</v>
+        <v>126649.1931</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>268024.76393</v>
+        <v>264674.44694</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>190612.43457</v>
+        <v>191479.43306</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>293671.50874</v>
+        <v>287568.66684</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>315152.62391</v>
+        <v>315139.13841</v>
       </c>
       <c r="M17" s="48" t="n">
         <v>504489.38813</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17" s="48" t="n">
+        <v>567593.281</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>317155.93424</v>
+        <v>315055.41817</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>459792.87213</v>
+        <v>443358.62371</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>632798.37929</v>
+        <v>631724.9585900001</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>640564.27939</v>
+        <v>636992.77507</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>606021.24705</v>
+        <v>601729.74162</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>884000.8461399999</v>
+        <v>880321.8057799999</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>766168.0552099999</v>
+        <v>1294585.60799</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>1590435.007</v>
+        <v>1588340.36684</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>1931068.41249</v>
+        <v>1930831.39946</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>2705599.19984</v>
+        <v>2703537.65779</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>3476744.32008</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>3475282.81949</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>3298822.813</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>3621955.03946</v>
+        <v>3601481.63803</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>4285174.711809999</v>
+        <v>4256323.79809</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>6552938.17018</v>
+        <v>6509420.86948</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>5712042.64115</v>
+        <v>5698907.27787</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>6843768.623729999</v>
+        <v>7099142.10221</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>6847824.52442</v>
+        <v>7217574.11185</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>7471686.33142</v>
+        <v>9439676.781330001</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>10642229.78715</v>
+        <v>10838508.70263</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>16534310.31138</v>
+        <v>16421779.1884</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>22535527.67247</v>
+        <v>22402029.16707</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>22623210.83977</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>22516936.25475</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>32732198.407</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>2045472.86513</v>
+        <v>2026955.22526</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>2205199.54419</v>
+        <v>2181028.11642</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>2896180.4635</v>
+        <v>2863155.85952</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>3186962.29882</v>
+        <v>3141423.78488</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>3569653.99399</v>
+        <v>3641996.22706</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>3887020.77053</v>
+        <v>4029728.96972</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>3721696.19402</v>
+        <v>4732890.91076</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>5572141.186530001</v>
+        <v>5738559.416230001</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>7329722.90218</v>
+        <v>7277392.607100001</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>9164524.342529999</v>
+        <v>9117440.22318</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>10520693.81607</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>10474368.07089</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>11785033.059</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>230584.5627</v>
+        <v>230529.90783</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>242003.89254</v>
+        <v>241990.61118</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>327346.67901</v>
+        <v>325596.90123</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>409444.1477</v>
+        <v>408440.99563</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>516529.26761</v>
+        <v>515627.7002</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>454283.87125</v>
+        <v>453876.94386</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>329898.80618</v>
+        <v>364785.76685</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>465637.33928</v>
+        <v>482423.39929</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>717231.64484</v>
+        <v>716058.2761899999</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>969584.6935299999</v>
+        <v>967952.7937799999</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>1223473.63173</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>1222677.56513</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>1149882.557</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>968829.15165</v>
+        <v>965724.74579</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>1051249.04743</v>
+        <v>1045913.98963</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>1345601.96302</v>
+        <v>1338651.68093</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>1398775.28595</v>
+        <v>1394939.99641</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>1452784.03372</v>
+        <v>1540732.90373</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>1575677.44433</v>
+        <v>1720495.45247</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>1440169.95121</v>
+        <v>2108911.03864</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>2453229.84636</v>
+        <v>2493014.73419</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>3268330.63739</v>
+        <v>3251567.3974</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>4314307.66916</v>
+        <v>4296240.81976</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>4738611.86703</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>4726812.13983</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>5080273.518</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>846059.15078</v>
+        <v>830700.57164</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>911946.60422</v>
+        <v>893123.51561</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>1223231.82147</v>
+        <v>1198907.27736</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>1378742.86517</v>
+        <v>1338042.79284</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>1600340.69266</v>
+        <v>1585635.62313</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>1857059.45495</v>
+        <v>1855356.57339</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>1951627.43663</v>
+        <v>2259194.10527</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>2653274.00089</v>
+        <v>2763121.28275</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>3344160.61995</v>
+        <v>3309766.93351</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>3880631.97984</v>
+        <v>3853246.60964</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>4558608.317310001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>4524878.36593</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>5554876.984</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>1576482.17433</v>
+        <v>1574526.41277</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>2079975.16762</v>
+        <v>2075295.68167</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>3656757.70668</v>
+        <v>3646265.00996</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>2525080.34233</v>
+        <v>2557483.49299</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>3274114.62974</v>
+        <v>3457145.87515</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>2960803.75389</v>
+        <v>3187845.14213</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>3749990.1374</v>
+        <v>4706785.870569999</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>5070088.60062</v>
+        <v>5099949.2864</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>9204587.409200002</v>
+        <v>9144386.5813</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>13371003.32994</v>
+        <v>13284588.94389</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>12102517.0237</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>12042568.18386</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>20947165.348</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>1316283.77941</v>
+        <v>1298922.15617</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>1330171.44419</v>
+        <v>1311410.64312</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>2814496.93722</v>
+        <v>2778387.48906</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>2391162.72888</v>
+        <v>2354962.56143</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>4152159.27479</v>
+        <v>4104274.05955</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>6147744.881100001</v>
+        <v>6345233.88152</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>9817902.232489999</v>
+        <v>11606059.67642</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>10397304.02249</v>
+        <v>10507789.25226</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>20280700.01411</v>
+        <v>20200913.06856</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>53230739.12126999</v>
+        <v>52934882.45421001</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>14476502.39289</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>14392238.84308</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>43538127.76</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>25890.09406</v>
@@ -1775,19 +1786,19 @@
         <v>27034.582</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>68250.11339</v>
+        <v>50149.52962</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>57257.08237999999</v>
+        <v>40685.00831</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>55311.91784</v>
+        <v>49657.06325</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>49723.7169</v>
+        <v>49645.10368</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>38944.59264</v>
+        <v>33640.30849</v>
       </c>
       <c r="J26" s="48" t="n">
         <v>52316.13843</v>
@@ -1796,22 +1807,27 @@
         <v>70844.28559999999</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>126232.01165</v>
+        <v>124464.30793</v>
       </c>
       <c r="M26" s="48" t="n">
         <v>109554.20785</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>89236.462</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
-        <v>448.76536</v>
+        <v>397.76536</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>5860.671729999999</v>
+        <v>5309.46578</v>
       </c>
       <c r="E27" s="48" t="n">
         <v>9561.898079999999</v>
@@ -1820,13 +1836,13 @@
         <v>10372.69387</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>1029</v>
+        <v>534</v>
       </c>
       <c r="H27" s="48" t="n">
         <v>84819.16961</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>77227.39468000001</v>
+        <v>78261.03649000001</v>
       </c>
       <c r="J27" s="48" t="n">
         <v>112666.87375</v>
@@ -1838,61 +1854,71 @@
         <v>45103.90543999999</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>66684.60711</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>65284.60711</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>103505.04</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>144688.28097</v>
+        <v>144133.45797</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>145644.15839</v>
+        <v>144692.02438</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>221523.01861</v>
+        <v>218543.28564</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>219685.74424</v>
+        <v>215273.6783</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>172981.47052</v>
+        <v>172916.67595</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>202301.06712</v>
+        <v>203323.82657</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>232180.54133</v>
+        <v>257678.64093</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>294731.76978</v>
+        <v>304208.76948</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>444087.59962</v>
+        <v>437473.01188</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>672065.419</v>
+        <v>665828.04155</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>815754.8731399999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>813618.70392</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>1202027.714</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>17165.92424</v>
+        <v>17163.63711</v>
       </c>
       <c r="D29" s="48" t="n">
         <v>1361.33314</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>14887.71981</v>
+        <v>14363.1555</v>
       </c>
       <c r="F29" s="48" t="n">
         <v>10019.07802</v>
@@ -1904,142 +1930,162 @@
         <v>5493.37481</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>282.91538</v>
+        <v>5815.74888</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>6571.303239999999</v>
+        <v>6476.712989999999</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>14782.79177</v>
+        <v>7760.12326</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>5062.17575</v>
+        <v>5023.15676</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>4307.795720000001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>4227.29712</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>23796.877</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>83450.47667</v>
+        <v>82966.96242</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>59325.75853</v>
+        <v>59324.88955</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>147140.26339</v>
+        <v>147110.68922</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>84160.8762</v>
+        <v>83780.22990999999</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>50519.55475</v>
+        <v>50509.65645</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>31441.37326</v>
+        <v>32213.09626</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>40466.89008</v>
+        <v>40554.44636</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>81155.68700000001</v>
+        <v>81590.22601</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>53111.30208</v>
+        <v>52911.51314</v>
       </c>
       <c r="L30" s="48" t="n">
         <v>45717.57247</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>254818.80244</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>254739.88305</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>55284.6</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>1942.62025</v>
+        <v>1941.47878</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>573.1633499999999</v>
+        <v>571.49927</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>1035.32186</v>
+        <v>984.1605499999999</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>652.5147000000001</v>
+        <v>652.31595</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>87142.06326000001</v>
+        <v>2530.73945</v>
       </c>
       <c r="H31" s="48" t="n">
         <v>35235.26493</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>4531.29502</v>
+        <v>4531.29029</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>173917.79766</v>
+        <v>173920.19218</v>
       </c>
       <c r="K31" s="48" t="n">
         <v>7988.984119999999</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>966.47374</v>
+        <v>920.12102</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>180750.46689</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>180750.45078</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>54005.645</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>823887.70702</v>
+        <v>811651.78961</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>919384.47832</v>
+        <v>904441.02627</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>2109847.33176</v>
+        <v>2097941.56577</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>1667654.38565</v>
+        <v>1655772.25458</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>3356769.08702</v>
+        <v>3400334.21682</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>5077665.32186</v>
+        <v>5276699.22326</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>8871243.267409999</v>
+        <v>10514258.67163</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>8966459.635749999</v>
+        <v>8925818.759129999</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>18704302.57117</v>
+        <v>18640226.49909</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>50853605.86533999</v>
+        <v>50664060.94572</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>11436249.83417</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>11359063.24154</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>40204757.526</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>8026.345139999999</v>
@@ -2057,7 +2103,7 @@
         <v>7410.579900000001</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>11241.42644</v>
+        <v>11422.07106</v>
       </c>
       <c r="I33" s="48" t="n">
         <v>15812.88865</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>20006.17805</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>12329.199</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2105,7 +2156,7 @@
         <v>56.1069</v>
       </c>
       <c r="K34" s="48" t="n">
-        <v>29.14946</v>
+        <v>0</v>
       </c>
       <c r="L34" s="48" t="n">
         <v>0</v>
@@ -2113,167 +2164,192 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>210783.5657</v>
+        <v>206750.62572</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>165504.6481</v>
+        <v>163193.1721</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>232994.4753</v>
+        <v>230476.40966</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>327203.60149</v>
+        <v>324250.55016</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>412152.30396</v>
+        <v>411537.83019</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>642907.31907</v>
+        <v>639465.9042400001</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>537212.4473000001</v>
+        <v>655506.6447000001</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>700840.4922400001</v>
+        <v>842147.2556500001</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>942914.13246</v>
+        <v>941069.45364</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>1471121.47426</v>
+        <v>1372900.1797</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>1588375.62752</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>1584994.27366</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>1793184.697</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>915286.7718700001</v>
+        <v>902260.6924200001</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>982934.831</v>
+        <v>971067.60943</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>2338450.61777</v>
+        <v>2326712.15419</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>1618917.75283</v>
+        <v>1605727.98715</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>3888193.1209</v>
+        <v>3886783.46563</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>5195741.61059</v>
+        <v>5325293.46793</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>9857084.27273</v>
+        <v>11079761.38422</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>9961115.251300002</v>
+        <v>9955931.881870002</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>19515044.2175</v>
+        <v>19385953.88223</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>52642610.28589</v>
+        <v>52402530.17626</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>12695934.85369</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>12606703.43495</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>40921086.303</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>2446.52444</v>
+        <v>2328.90455</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>1410.69282</v>
+        <v>1254.39484</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>1228.66066</v>
+        <v>1083.50764</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>1875.67059</v>
+        <v>1632.36198</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>6660.63067</v>
+        <v>6261.09284</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>14348.577</v>
+        <v>14158.61242</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>10550.61424</v>
+        <v>10090.59438</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>12983.70616</v>
+        <v>12509.47437</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>38533.9826</v>
+        <v>37751.21320000001</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>36221.64223</v>
+        <v>32001.12855</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>40484.57934</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>40305.20986</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>41240.933</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>99072.45303</v>
+        <v>96079.90444</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>143119.48648</v>
+        <v>143007.32024</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>134622.69052</v>
+        <v>134318.94539</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>138955.86148</v>
+        <v>136301.57283</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>147392.82139</v>
+        <v>147335.00584</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>92459.25050999998</v>
+        <v>91507.1771</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>136683.03072</v>
+        <v>130147.98725</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>215368.27608</v>
+        <v>213416.07756</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>124832.31791</v>
+        <v>122902.43509</v>
       </c>
       <c r="L38" s="48" t="n">
         <v>353945.48846</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>445919.74082</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>443275.9294799999</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>324046.232</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>37.0341</v>
@@ -2282,19 +2358,19 @@
         <v>0</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>21.52027</v>
+        <v>17.0305</v>
       </c>
       <c r="F39" s="48" t="n">
         <v>5014.9593</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>204.37371</v>
+        <v>202.88318</v>
       </c>
       <c r="H39" s="48" t="n">
         <v>249199.0843</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>1.25221</v>
+        <v>1.25475</v>
       </c>
       <c r="J39" s="48" t="n">
         <v>0</v>
@@ -2308,50 +2384,60 @@
       <c r="M39" s="48" t="n">
         <v>1550239.77943</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>5268.724</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>720071.1191799999</v>
+        <v>711035.2484800001</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>753985.8634800001</v>
+        <v>742495.77257</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>2088069.47065</v>
+        <v>2077419.65082</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>1357166.41582</v>
+        <v>1347024.57083</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>3504238.47773</v>
+        <v>3504014.47211</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>4618510.563680001</v>
+        <v>4748944.51052</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>8656491.75642</v>
+        <v>10772207.79734</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>9644585.396509999</v>
+        <v>9565066.239770001</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>19106865.7013</v>
+        <v>18980710.52913</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>50250103.4328</v>
+        <v>50016360.75431</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>10096129.09665</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>10013532.51737</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>39890289.424</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>5027.413140000001</v>
@@ -2369,7 +2455,7 @@
         <v>12090.83758</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>10016.40559</v>
+        <v>10068.93224</v>
       </c>
       <c r="I41" s="48" t="n">
         <v>14357.68165</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>4897.14573</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>6935.915</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>3271.84487</v>
@@ -2425,134 +2516,154 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>85360.38311</v>
+        <v>84480.34284</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>74026.52301999999</v>
+        <v>73917.85657999999</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>101241.078</v>
+        <v>100605.82217</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>110154.00837</v>
+        <v>110003.68494</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>217605.97982</v>
+        <v>216879.17408</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>211207.72951</v>
+        <v>211415.15135</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>1038999.93749</v>
+        <v>152956.06885</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>78556.99578</v>
+        <v>155319.2134</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>235283.2464</v>
+        <v>235060.73552</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>427523.2136</v>
+        <v>425406.29614</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>558264.5117200001</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>554452.8530799999</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>653305.075</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>565732.87001</v>
+        <v>549751.29553</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>352488.80355</v>
+        <v>343871.78512</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>830045.6096900001</v>
+        <v>821215.07283</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>685461.9790699999</v>
+        <v>677363.11271</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>918252.4422</v>
+        <v>1095120.90511</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>807161.46328</v>
+        <v>897185.35869</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>1185004.06218</v>
+        <v>1315476.00083</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>1447315.68006</v>
+        <v>1399588.50418</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>2239085.75062</v>
+        <v>2163730.76285</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>5378017.43716</v>
+        <v>5357569.00265</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>3218286.7103</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>3207644.83233</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>6193289.282</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>480234.60291</v>
+        <v>467953.80894</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>326435.77454</v>
+        <v>318938.75975</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>687196.991</v>
+        <v>678366.4541399999</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>583098.6865399999</v>
+        <v>574999.8201799999</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>793022.95822</v>
+        <v>897672.91124</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>653694.36774</v>
+        <v>734497.3746100001</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>982740.2350399999</v>
+        <v>986336.0328399999</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>1046526.26035</v>
+        <v>999343.22135</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>1786588.74156</v>
+        <v>1712307.08398</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>4434972.22422</v>
+        <v>4414523.78971</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>2603281.33277</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>2598079.98376</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>4835524.737</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>85498.2671</v>
+        <v>81797.48659</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>26053.02901</v>
+        <v>24933.02537</v>
       </c>
       <c r="E46" s="48" t="n">
         <v>142848.61869</v>
@@ -2561,457 +2672,515 @@
         <v>102363.29253</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>125229.48398</v>
+        <v>197447.99387</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>153467.09554</v>
+        <v>162687.98408</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>202263.82714</v>
+        <v>329139.96799</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>400789.41971</v>
+        <v>400245.28283</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>452497.00906</v>
+        <v>451423.67887</v>
       </c>
       <c r="L46" s="48" t="n">
         <v>943045.2129400001</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>615005.3775299999</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>609564.8485699999</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>1357764.545</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>1411746.31186</v>
+        <v>1421436.58099</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>2074722.97726</v>
+        <v>2071766.93024</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>3302758.41644</v>
+        <v>3276725.272</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>2611863.339310001</v>
+        <v>2629354.95456</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>2619828.34143</v>
+        <v>2579515.56396</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>3105645.56112</v>
+        <v>3310600.19703</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>2525804.03498</v>
+        <v>3917608.16194</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>4058961.69175</v>
+        <v>4252218.152609999</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>7731157.45519</v>
+        <v>7795615.00478</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>8581114.728159999</v>
+        <v>8459372.21919</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>10664797.8526</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>10620458.75966</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>17370917.523</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>117783.48359</v>
+        <v>114283.22176</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>148290.57402</v>
+        <v>146767.84775</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>153877.4112</v>
+        <v>153209.70298</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>179288.38081</v>
+        <v>176326.22089</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>467477.55275</v>
+        <v>469183.9924099999</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>957828.15316</v>
+        <v>960453.85676</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>263332.87518</v>
+        <v>299227.65934</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>312265.46496</v>
+        <v>258022.85033</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>516505.42456</v>
+        <v>420558.85734</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>477795.34168</v>
+        <v>466101.07075</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>648443.96792</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>644580.1497599999</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>615586.407</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>13523.62912</v>
+        <v>13511.297</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>42452.34532000001</v>
+        <v>42351.81787000001</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>20968.84671</v>
+        <v>20876.23071</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>10827.69475</v>
+        <v>10798.98125</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>9972.58366</v>
+        <v>9949.32077</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>42694.44288</v>
+        <v>42576.84719000001</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>22486.74989</v>
+        <v>26295.42095</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>12388.09847</v>
+        <v>11933.52585</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>145670.1975</v>
+        <v>58031.74861000001</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>9022.516029999999</v>
+        <v>9001.151179999999</v>
       </c>
       <c r="M49" s="48" t="n">
         <v>17104.18653</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>43238.278</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>104259.85447</v>
+        <v>100771.92476</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>105838.2287</v>
+        <v>104416.02988</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>132908.56449</v>
+        <v>132333.47227</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>168460.68606</v>
+        <v>165527.23964</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>457504.9690899999</v>
+        <v>459234.67164</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>915133.71028</v>
+        <v>917877.0095699999</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>240846.12529</v>
+        <v>272932.23839</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>299877.36649</v>
+        <v>246089.32448</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>370835.2270599999</v>
+        <v>362527.10873</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>468772.82565</v>
+        <v>457099.91957</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>631339.78139</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>627475.96323</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>572348.129</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>452737.40743</v>
+        <v>448890.62932</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>108836.88609</v>
+        <v>107139.96632</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>281094.12293</v>
+        <v>267094.14608</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>392584.41791</v>
+        <v>390552.82065</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>364545.86787</v>
+        <v>359922.9310399999</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>582655.52261</v>
+        <v>589837.74986</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>261333.9428</v>
+        <v>314263.94573</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>631823.8594600001</v>
+        <v>611020.8540299999</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>894060.3254000001</v>
+        <v>887779.39824</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>806443.09515</v>
+        <v>801869.4350599999</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>1357879.34803</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>1354080.68788</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>2041899.302</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>357299.54552</v>
+        <v>356242.88053</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>43793.35475999999</v>
+        <v>42892.33656</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>57097.21255</v>
+        <v>56591.99032</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>296889.4198800001</v>
+        <v>295658.13992</v>
       </c>
       <c r="G52" s="48" t="n">
         <v>180648.664</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>123189.26311</v>
+        <v>122826.59942</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>111309.52273</v>
+        <v>150781.10531</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>367478.0799199999</v>
+        <v>366285.70927</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>530440.6919300001</v>
+        <v>530440.69193</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>374006.09271</v>
+        <v>373351.76729</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>964230.44699</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>962439.6923400001</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>1368470.775</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>24174.17377</v>
+        <v>23967.39985</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>12280.00937</v>
+        <v>12236.68259</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>24594.69666</v>
+        <v>24527.00623</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>18170.95555</v>
+        <v>18142.43262</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>14719.55578</v>
+        <v>19676.39693</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>77476.81117</v>
+        <v>78368.04395000001</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>29728.42537</v>
+        <v>36725.09114</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>40788.14463999999</v>
+        <v>41994.30833</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>35321.63381</v>
+        <v>35305.73864</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>34067.13299000001</v>
+        <v>33537.25576</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>62684.4001</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>62645.76868</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>72297.637</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>71263.68814</v>
+        <v>68680.34894</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>52763.52196</v>
+        <v>52010.94717</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>199402.21372</v>
+        <v>185975.14953</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>77524.04248</v>
+        <v>76752.24811</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>169177.64809</v>
+        <v>159597.87011</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>381989.44833</v>
+        <v>388643.10649</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>120295.9947</v>
+        <v>126757.74928</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>223557.6349</v>
+        <v>202740.83643</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>328297.99966</v>
+        <v>322032.96767</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>398369.8694500001</v>
+        <v>394980.41201</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>330964.5009400001</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>328995.22686</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>601130.89</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>1076792.38802</v>
+        <v>1086829.17343</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>2114176.66519</v>
+        <v>2111394.81167</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>3175541.70471</v>
+        <v>3162840.8289</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>2398567.30221</v>
+        <v>2415128.3548</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>2722760.02631</v>
+        <v>2688776.62533</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>3480818.19167</v>
+        <v>3681216.30393</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>2527802.96736</v>
+        <v>3902571.87555</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>3739403.29725</v>
+        <v>3899220.14891</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>7353602.554350001</v>
+        <v>7328394.46388</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>8252466.97469</v>
+        <v>8123603.854880001</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>9955362.472490001</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>9910958.22154</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>15944604.628</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>182946.8251</v>
+        <v>182663.46819</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>366587.3631</v>
+        <v>364012.63679</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>513668.11886</v>
+        <v>510633.6361600001</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>347582.5592200001</v>
+        <v>346355.92982</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>440335.67876</v>
+        <v>430693.33187</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>311273.79336</v>
+        <v>312951.95782</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>324702.45537</v>
+        <v>335344.2409</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>388430.65005</v>
+        <v>388086.51807</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>484306.82974</v>
+        <v>475136.67785</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>424755.04274</v>
+        <v>415181.67323</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>592157.26113</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>580526.69371</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>861936.0649999999</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>893845.5629200001</v>
+        <v>904165.70524</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>1747589.30209</v>
+        <v>1747382.17488</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>2661873.58585</v>
+        <v>2652207.19274</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>2050984.74299</v>
+        <v>2068772.42498</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>2282424.34755</v>
+        <v>2258083.29346</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>3169544.39831</v>
+        <v>3368264.34611</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>2203100.51199</v>
+        <v>3567227.63465</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>3350972.6472</v>
+        <v>3511133.63084</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>6869295.72461</v>
+        <v>6853257.78603</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>7827711.93195</v>
+        <v>7708422.18165</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>9363205.21136</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>9330431.527829999</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>15082668.563</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>212</v>
+        <v>187</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>138</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>